--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N2">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O2">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P2">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q2">
-        <v>2880.147794742023</v>
+        <v>68.62677056349567</v>
       </c>
       <c r="R2">
-        <v>25921.33015267821</v>
+        <v>617.6409350714611</v>
       </c>
       <c r="S2">
-        <v>0.389788757717067</v>
+        <v>0.03830247400228563</v>
       </c>
       <c r="T2">
-        <v>0.3897887577170671</v>
+        <v>0.03830247400228563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>368.169731</v>
       </c>
       <c r="O3">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P3">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q3">
-        <v>2420.205166277111</v>
+        <v>452.2973735962056</v>
       </c>
       <c r="R3">
-        <v>21781.846496494</v>
+        <v>4070.67636236585</v>
       </c>
       <c r="S3">
-        <v>0.3275417903573525</v>
+        <v>0.2524395108675837</v>
       </c>
       <c r="T3">
-        <v>0.3275417903573525</v>
+        <v>0.2524395108675837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N4">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O4">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P4">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q4">
-        <v>622.8219175216534</v>
+        <v>121.5156277104747</v>
       </c>
       <c r="R4">
-        <v>5605.397257694881</v>
+        <v>1093.640649394272</v>
       </c>
       <c r="S4">
-        <v>0.08429045966075911</v>
+        <v>0.06782118891847788</v>
       </c>
       <c r="T4">
-        <v>0.08429045966075913</v>
+        <v>0.06782118891847787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N5">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O5">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P5">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q5">
-        <v>14.481766951591</v>
+        <v>1.846411346473</v>
       </c>
       <c r="R5">
-        <v>130.335902564319</v>
+        <v>16.617702118257</v>
       </c>
       <c r="S5">
-        <v>0.00195990982126469</v>
+        <v>0.001030532575190507</v>
       </c>
       <c r="T5">
-        <v>0.001959909821264691</v>
+        <v>0.001030532575190507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>368.169731</v>
       </c>
       <c r="O6">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P6">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q6">
         <v>12.169114118743</v>
@@ -818,10 +818,10 @@
         <v>109.522027068687</v>
       </c>
       <c r="S6">
-        <v>0.001646923773676316</v>
+        <v>0.006791914778107525</v>
       </c>
       <c r="T6">
-        <v>0.001646923773676317</v>
+        <v>0.006791914778107525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N7">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O7">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P7">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q7">
-        <v>3.13163160528</v>
+        <v>3.269392278496</v>
       </c>
       <c r="R7">
-        <v>28.18468444752</v>
+        <v>29.424530506464</v>
       </c>
       <c r="S7">
-        <v>0.0004238236646320895</v>
+        <v>0.001824737077413595</v>
       </c>
       <c r="T7">
-        <v>0.0004238236646320896</v>
+        <v>0.001824737077413595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N8">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O8">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P8">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q8">
-        <v>698.2750240772979</v>
+        <v>120.9206242035523</v>
       </c>
       <c r="R8">
-        <v>6284.475216695681</v>
+        <v>1088.285617831971</v>
       </c>
       <c r="S8">
-        <v>0.09450200947216472</v>
+        <v>0.06748910121905634</v>
       </c>
       <c r="T8">
-        <v>0.09450200947216472</v>
+        <v>0.06748910121905632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>368.169731</v>
       </c>
       <c r="O9">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P9">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q9">
-        <v>586.7646180655538</v>
+        <v>796.9496494123623</v>
       </c>
       <c r="R9">
-        <v>5280.881562589985</v>
+        <v>7172.54684471126</v>
       </c>
       <c r="S9">
-        <v>0.07941059551375822</v>
+        <v>0.4447993542039811</v>
       </c>
       <c r="T9">
-        <v>0.07941059551375823</v>
+        <v>0.4447993542039811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N10">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O10">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P10">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q10">
-        <v>150.99953906784</v>
+        <v>214.1109866104214</v>
       </c>
       <c r="R10">
-        <v>1358.99585161056</v>
+        <v>1926.998879493792</v>
       </c>
       <c r="S10">
-        <v>0.02043573001932528</v>
+        <v>0.1195011863579036</v>
       </c>
       <c r="T10">
-        <v>0.02043573001932529</v>
+        <v>0.1195011863579036</v>
       </c>
     </row>
   </sheetData>
